--- a/備審/排名.xlsx
+++ b/備審/排名.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Documents\GitHub\CYCUICE_PL\備審\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnnyHsu\Documents\GitHub\CYCUICE_PL\備審\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20429A2-54C8-4E4F-B93D-D1193A6E92F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,12 +110,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -396,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -426,23 +441,27 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
